--- a/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200330.xlsx
+++ b/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200330.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\疫情统计\3.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9A8271-926D-4617-8E26-ECD47C5C0E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85BEF43-0534-4726-B7D3-B16BC1D6BB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10724,7 +10724,7 @@
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -11786,9 +11786,7 @@
       <c r="H14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="16">
-        <v>2</v>
-      </c>
+      <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
@@ -11858,9 +11856,7 @@
         <v>3295</v>
       </c>
       <c r="H15" s="16"/>
-      <c r="I15" s="16">
-        <v>2</v>
-      </c>
+      <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
@@ -11928,9 +11924,7 @@
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="16">
-        <v>2</v>
-      </c>
+      <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
